--- a/UnitTest.OpenXml.Excel.Data/test.xlsx
+++ b/UnitTest.OpenXml.Excel.Data/test.xlsx
@@ -427,13 +427,13 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -492,9 +492,7 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
-        <v>38730</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -585,6 +583,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/UnitTest.OpenXml.Excel.Data/test.xlsx
+++ b/UnitTest.OpenXml.Excel.Data/test.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,7 +470,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>36526</v>
+        <v>30402.288194444445</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
